--- a/Input/Adamjee_Mednet/latestFiles/benefits1.xlsx
+++ b/Input/Adamjee_Mednet/latestFiles/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">$copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addons</t>
   </si>
   <si>
     <t xml:space="preserve">Family Care Product</t>
@@ -304,7 +307,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">2024-04-01</t>
@@ -416,7 +419,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -443,11 +446,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,7 +497,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,15 +518,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,13 +543,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG3" activeCellId="0" sqref="BG3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL3" activeCellId="0" sqref="BL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="96.91"/>
@@ -746,51 +740,54 @@
       <c r="BK1" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="BL1" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="203.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>59</v>
@@ -799,159 +796,162 @@
         <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BE2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="6" t="s">
-        <v>62</v>
+      <c r="BH2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK2" s="7" t="s">
         <v>96</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BH3" s="5" t="s">
         <v>98</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BH9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
